--- a/protein_sequences_info/Sequenceinfo_dehalogenases.xlsx
+++ b/protein_sequences_info/Sequenceinfo_dehalogenases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/probstsi/Documents/GitHub/biodefluorination-paper/alignments_HAD_humgut/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinsse/Documents/github/gut_microbe_defluorination_paper/protein_sequences_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB48BB23-38DE-2C47-A309-C118C3F4DF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB5952-F376-7747-BDF3-E9243E798569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protein info" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
   <si>
     <t>length</t>
   </si>
@@ -373,6 +373,36 @@
   </si>
   <si>
     <t>Oscillospiraceae</t>
+  </si>
+  <si>
+    <t>protein_id</t>
+  </si>
+  <si>
+    <t>testing_stage</t>
+  </si>
+  <si>
+    <t>initial_set</t>
+  </si>
+  <si>
+    <t>colometric_assay_validation</t>
+  </si>
+  <si>
+    <t>ml_validation</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
   </si>
 </sst>
 </file>
@@ -839,13 +869,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="394">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1578,229 +1607,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD66BD5-569C-E04D-8A86-DC349EC6CDED}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="6" width="46.83203125" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>55</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>58</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>61</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>64</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>65</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>254</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1827,7 +1983,7 @@
       <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>41</v>
       </c>
       <c r="C1" t="s">

--- a/protein_sequences_info/Sequenceinfo_dehalogenases.xlsx
+++ b/protein_sequences_info/Sequenceinfo_dehalogenases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinsse/Documents/github/gut_microbe_defluorination_paper/protein_sequences_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB5952-F376-7747-BDF3-E9243E798569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82AB981-7479-D940-86F6-7D1057484182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26400" windowHeight="19640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protein info" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="130">
   <si>
     <t>length</t>
   </si>
@@ -403,6 +403,81 @@
   </si>
   <si>
     <t>P24</t>
+  </si>
+  <si>
+    <t>ATGATTGAGGGTGTGGCGTTCGATGCCTACGGCACTTTATATGACGTATATTCCGTTGAGCAAAAATGCGAGGAAAACTATCCTGGTAATGGGGCAGCTATCTCACGCATGTGGCGTCAAAAACAATTAGAGTACAGTTGGTTACGCACTCTGATGGGGCGTTATGAAAACTTCTGGCGCGTAACGCAGGACGCGTTGCGTTATACATTGGCCGATATTGGTTTGAAAGCTGATGCCGCAGTCCTTGATGAGATCATGGAGACATATCTTAAGTTGGAAATGTATCCCGAGGTCATCGAGGCTTTCGCATTGCTGGGGTCGCGCAAAAAAGTCATCTTAACGAACGGGAACTTAGAGATGATCGAGCCCCTGGTCGAGCGCTCGGGTCTTGCAGCGCACTTAGACGGATGCTTGAGTGCTGATGAAGTCGGCTTATTTAAAACTCGTCCTGAGGTGTACGGGCTGGCGATTGAGCATATGGGACTGGAAAAAGAGCAGGTACTGTTCATCTCATCAAATGGCTGGGACGTGGCAGGAGCGAAGAGTTTCGGGTTTACGGTCGGCTGGATCAATCGTGCAGGTAAACCCGCGGAAGAGCTTGGTGTGCGTGCGGACTATGATGTCCCGAACCTTTTAGCTCTTGCACAGGCCGTGGCCGGCTCCGAGAATCTGTATTTTCAGAGCcatcaccatcatcaccactgaCCTCGAGTCTGGTAAAGAAACCGCTGC</t>
+  </si>
+  <si>
+    <t>ATGAGCTCGAAGCCCATTCCTGGGGTAAAAGCATTGGTCTTTGACGTTTTTGGAACCGTCGTGGATTGGCGTTCGTCGGTCATTTGTGAACTTGAAAGCTTTGGGCGTAGCAAAGGAGTTGCAGCTGATTGGGTAGCAATTGCGGATGGATGGCGCGCGGGTTACATGCCGTCTATGGACCGTGTGCGTAAGGGCGAAACGCCTTGGAAGACGATCGACGAGCTTCATCGCGTAACTTTGGAAGCCCTTCTGGAACAACATGGGGTTAAGGGGTTAAGCGAAGCTGAAAAGGATCACTTGAACCGTGCTTGGCATCGCTTAAGTCCTTGGCCCGATAGCGTAGCAGGCTTAGCTCGCTTAAAACGTCGTTATGTGATCGGAACATTGAGTAACGGAAATGTGGCCCTGTTGTTAAATATGGCCAAGAACGCAGCGTTGCCGTGGGATATGATCTTCTCGGCAGAATTGGTGCGCCATTACAAGCCAGACCCCGAAACCTATCGCTCAGTTCCTGAGCTGCTGCGTATCGCGCCGGGTGAAGTAATGTTAGTAGCAGCCCATAACAATGACCTTGTTGCGGCGGCCCGTGAGGGATTACGTACTGGCTTCGTGGCCCGTCCCACCGAGTATGGTCCGCATCAACAACGCGATTTTAAAGCTGAGCACCCGTTCGATGTGGTCGCGGAGGACTTTTTGGAGTTAGCTGAGCGCATGGGTGCAGAGAATCTGTATTTTCAGAGCcatcaccatcatcaccactgaCCTCGAGTCTGGTAAAGAAACCGCTGC</t>
+  </si>
+  <si>
+    <t>ATGGCAATCGAGAACGTGAAGGCGTTGACGTTCGATGTATTTGGTACGGTTGTAGACTGGCGCAGTTCACTTATCCGCGAAGGCGAAGCACTTGGGAAAAAGAAAGGTTTAGGTGTAGATTGGCCGAAATTCGCAGACGCTTGGCGTGGGCTTTATCAGCCAGCAATGGAAGAAGTACGTACAGGGCGTCGCCCATGGGCCAAACTGGACGACCTGCACCGCGAGAGCTTAGACAAACTTCTGGTTCAATTTGGGATCAAGGGTCTGTCAGATCCTGAAATCGACCATCTGAATCGCGCTTGGCATCGTTTGCACCCATGGCCGGATTCAGTGCCAGGGCTGACACGCTTAAAGAAAAAATTTGTATTAGCAACATTGTCTAATGGAAACGTAGCATTAATTGTTAATATGGCTAAGTATGGCGGATTACCATGGGATGCCGTTCTGGGCGCTGAGGTCGCGCGTCACTATAAGCCCGAACCCGAGGCCTACTTAACTACGGCCGCTCTGTTGGGTCTTGCGCCCGGAGAGTGTATGATGGTTGCCGCACACAACGGTGATCTGGCAGCAGCATCCGCTGTCGGCTTGCGCACTGCGTTCGTGCCCCGCCCGAATGAACACGGTCCGGCGCAAGCGAAGGACGTAAAGCCCGCACGCGACTGGGATGTAGTGGCCAGTGACTTTGTGGATTTAGCGGCACGTCTGGGTTGCGAGAATCTGTATTTTCAGAGCcatcaccatcatcaccactgaCCTCGAGTCTGGTAAAGAAACCGCTGC</t>
+  </si>
+  <si>
+    <t>ATGTCTGGCCGTCCCCTTGAGCGTCGCGAGTTTTTGTCAGTGGGAGCTTTGTCAGTAGCAGGAGCGTTGGCGCCTGACGAAGCCCGTGTTGAGGCTCGTCCTCAGGTTGCTTCGCAAGTAAAGGCATTGACGTTCGATGTCTTTGGTACCGTAGTCGATTGGCGTACTTCGCTTATTCGCGAGGGACAGCAGCTGACGCGCACACATGGTATCCAGGCAGACTGGGAGGCATTTGCGGATGGGTGGCGCAGTGGTTATGGACCAGCAATGAACCGTGTACGCACGGGTGAGTTACCGTGGACCAAGATTGACGATTTACACCGCATGATCCTGGATGACTTATTAGTTGAATTTTCTATCCGTGGACTGTCTGAAGCTGAGATTGATAACTTAAACCGCGCATGGCATCGTCTGATTCCCTGGTCGGATTCTGTGACCGGTTTATACCGTCTTAAATCTCGCTACGTCATTAGTACTTTATCTAACGGGAACGTCAGCCTGCTGACGAACATGGCCAAAAATGCAGGTTTACCTTGGGATTGTGTGTTGTCAGCCGAATTAACTGGACATTACAAAACGGACCCGGAGGTTTACGAAAAAGCTGCGGATTTGCTGAGTCTGCCCCCAACTGAAGTAATGATGGTAGCAGCACATCGTGGAGACTTAGTTGCTGCGAAGGCTATTGGATTCAAGACGGCGTTAGTTCATCGCCCGTTAGAGTACGGTCCGAACCGCGAGGTAGACCTTTCACCTGACCCGCGTTTTGACTACAACGCCATGAGTTTCATTGAATTGGCAGAGCAAATGGGTATCGAGAATCTGTATTTTCAGAGCcatcaccatcatcaccactgaCCTCGAGTCTGGTAAAGAAACCGCTGC</t>
+  </si>
+  <si>
+    <t>ATGATTAAGGCTGTGCTTTTCGACTTTGATGAAACATTGCAGGACCGTACGGCGGCGTTCGAGAAATATATGGATATGTTTTTAGATGAGTTCTGTCCGAATCTGCCTTGTGAGGAACGTGAGAAGCGTAAAGACTATATGCGTATTACCGGAAACGGCGGTTACGTGGACCGCGAGAAGTGGTATCAGGGCATTATTGACGAGTGGCAGTGGAACGACGCGCCCCCTGCCAAAGAACTGGCACGCCATTATGATTGTCGTTTCGGAGATTGTGACGTTATCTTTGAACATACTCCCAAATTACTGAAGGAATTAAAAGACCGTGGATACATCGTCGGGATTATTACTAACGGGCCCTCTTACCTTCAGAACCATAAACTGGACGAAAGTGGGCTTCGCAAATACTGCGACATCACAGTAGTGTCCGGCGACGTTGGCATCCACAAGCCAGATCCAGCACTGTTCGAATACACTGCTAACAAATTGAATCTTCCCGTCGAGGAGTGTACTTATGTTGGCGACCACCCCATCAACGACATTAAAGGTGCTTTAGACGCCGGCATGCACGCCATCCGTATGAATTGGGGTTGGTTTAAAGGACAAGACCTGCGCAAGGACGTTCCAGTTATCACTGACATCTTGGACGTACTTAAATATGTCGAGAATCTGTATTTTCAGAGCcatcaccatcatcaccactgaCCTCGAGTCTGGTAAAGAAACCGCTGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP_139652913.1 </t>
+  </si>
+  <si>
+    <t>HTS94301.1</t>
+  </si>
+  <si>
+    <t>MDH3205452.1</t>
+  </si>
+  <si>
+    <t>PYN88313.1</t>
+  </si>
+  <si>
+    <t>k141_233547_42</t>
+  </si>
+  <si>
+    <t>MIKAVLFDFDETLQDRTAAFEKYMDMFLDEFCPNLPCEEREKRKDYMRITGNGGYVDREKWYQGIIDEWQ
+WNDAPPAKELARHYDCRFGDCDVIFEHTPKLLKELKDRGYIVGIITNGPSYLQNHKLDESGLRKYCDITV
+VSGDVGIHKPDPALFEYTANKLNLPVEECTYVGDHPINDIKGALDAGMHAIRMNWGWFKGQDLRKDVPVI
+TDILDVLKYV</t>
+  </si>
+  <si>
+    <t>MIEGVAFDAYGTLYDVYSVEQKCEENYPGNGAAISRMWRQKQLEYSWLRTLMGRYENFWRVTQDALRYTL
+ADIGLKADAAVLDEIMETYLKLEMYPEVIEAFALLGSRKKVILTNGNLEMIEPLVERSGLAAHLDGCLSA
+DEVGLFKTRPEVYGLAIEHMGLEKEQVLFISSNGWDVAGAKSFGFTVGWINRAGKPAEELGVRADYDVPN
+LLALAQAVAGS</t>
+  </si>
+  <si>
+    <t>MSSKPIPGVKALVFDVFGTVVDWRSSVICELESFGRSKGVAADWVAIADGWRAGYMPSMDRVRKGETPWK
+TIDELHRVTLEALLEQHGVKGLSEAEKDHLNRAWHRLSPWPDSVAGLARLKRRYVIGTLSNGNVALLLNM
+AKNAALPWDMIFSAELVRHYKPDPETYRSVPELLRIAPGEVMLVAAHNNDLVAAAREGLRTGFVARPTEY
+GPHQQRDFKAEHPFDVVAEDFLELAERMGA</t>
+  </si>
+  <si>
+    <t>MSGRPLERREFLSVGALSVAGALAPDEARVEARPQVASQVKALTFDVFGTVVDWRTSLIREGQQLTRTHG
+IQADWEAFADGWRSGYGPAMNRVRTGELPWTKIDDLHRMILDDLLVEFSIRGLSEAEIDNLNRAWHRLIP
+WSDSVTGLYRLKSRYVISTLSNGNVSLLTNMAKNAGLPWDCVLSAELTGHYKTDPEVYEKAADLLSLPPT
+EVMMVAAHRGDLVAAKAIGFKTALVHRPLEYGPNREVDLSPDPRFDYNAMSFIELAEQMGI</t>
+  </si>
+  <si>
+    <t>MAIENVKALTFDVFGTVVDWRSSLIREGEALGKKKGLGVDWPKFADAWRGLYQPAMEEVRTGRRPWAKLD
+DLHRESLDKLLVQFGIKGLSDPEIDHLNRAWHRLHPWPDSVPGLTRLKKKFVLATLSNGNVALIVNMAKY
+GGLPWDAVLGAEVARHYKPEPEAYLTTAALLGLAPGECMMVAAHNGDLAAASAVGLRTAFVPRPNEHGPA
+QAKDVKPARDWDVVASDFVDLAARLGC</t>
+  </si>
+  <si>
+    <t>Candidatus Rokuibacteriota bacterium</t>
+  </si>
+  <si>
+    <t>Gemmatimonadota bacterium</t>
+  </si>
+  <si>
+    <t>Stellaceae bacterium</t>
+  </si>
+  <si>
+    <t>Raoultibacter phocaeensis</t>
+  </si>
+  <si>
+    <t>Westernized human gut microbiome</t>
   </si>
 </sst>
 </file>
@@ -869,12 +944,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="394">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1610,7 +1686,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="I21" sqref="I21:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1864,95 +1940,271 @@
       <c r="B10" t="s">
         <v>103</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>103</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>103</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>103</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>103</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>103</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21">
+        <f>LEN(H21)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I25" si="0">LEN(H22)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>107</v>
       </c>
       <c r="B23" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>108</v>
       </c>
       <c r="B24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/protein_sequences_info/Sequenceinfo_dehalogenases.xlsx
+++ b/protein_sequences_info/Sequenceinfo_dehalogenases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinsse/Documents/github/gut_microbe_defluorination_paper/protein_sequences_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/probstsi/Documents/GitHub/gut_microbe_defluorination_paper/protein_sequences_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82AB981-7479-D940-86F6-7D1057484182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C320A-47E2-5B4E-8825-CA8575239D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26400" windowHeight="19640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42880" yWindow="7160" windowWidth="26400" windowHeight="19640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protein info" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="179">
   <si>
     <t>length</t>
   </si>
@@ -273,9 +273,6 @@
     <t>MAGVPFRSPSTGRNVRAVLFDTFGTVVDWRTGIATAVADYAARHQLEVDAVAFADRWRARYQPSMDAILSGAREFVTLDILHRENLDFVLRESGIDPTNHDSGELDELARAWHVLTPWPDSVPGLTAIKAEYIIGPLSNGNTSLLLDMAKNAGIPWDVIIGSDINRKYKPDPQAYLRTAQVLGLHPGEVMLAAAHNGDLEAAHATGLATAFILRPVEHGPHQTDDLAPTGSWDISATDITDLAAQLRAGSTGFR</t>
   </si>
   <si>
-    <t>3UMG_1</t>
-  </si>
-  <si>
     <t>Rhodococcus jostii</t>
   </si>
   <si>
@@ -478,13 +475,174 @@
   </si>
   <si>
     <t>Westernized human gut microbiome</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>WP_050688410.1</t>
+  </si>
+  <si>
+    <t>WP_029378231.1</t>
+  </si>
+  <si>
+    <t>WP_048310185.1</t>
+  </si>
+  <si>
+    <t>WP_081745164.1</t>
+  </si>
+  <si>
+    <t>WP_066861885.1</t>
+  </si>
+  <si>
+    <t>WP_263041397.1</t>
+  </si>
+  <si>
+    <t>WP_187031722.1</t>
+  </si>
+  <si>
+    <t>WP_036125194.1</t>
+  </si>
+  <si>
+    <t>WP_031546286.1</t>
+  </si>
+  <si>
+    <t>WP_053359908.1</t>
+  </si>
+  <si>
+    <t>GKH53471</t>
+  </si>
+  <si>
+    <t>Priestia megaterium</t>
+  </si>
+  <si>
+    <t>Alkalihalobacillus macyae</t>
+  </si>
+  <si>
+    <t>Eisenbergiella massiliensis</t>
+  </si>
+  <si>
+    <t>Neglectibacter timonensis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Acutalibacter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LFL 21</t>
+    </r>
+  </si>
+  <si>
+    <t>Lacticaseibacillus rhamnosus</t>
+  </si>
+  <si>
+    <t>Clostridium butyricum</t>
+  </si>
+  <si>
+    <t>Lachnospiraceae bacterium</t>
+  </si>
+  <si>
+    <t>WP_011593529.1</t>
+  </si>
+  <si>
+    <t>ATGAAATTTAAAACCATCTTATTTGATGCCTATGGAACCCTATTTGATGTTCACACGGTCATAGAGACCTGTGATAAACTGTATCCGGAGAGAGGAGAACGTATATCACATCTGTGGAGACTTAAACAAATCGAGTATGCCATGCAGTATCAGCTGATGGGTCGATATGTGGACTTTTATACGCTCACCAATCAAAGCCTGAAATATGCGGCCGAAGCAAATGATATTGACCTCACGGAACATGAAGAAAAAATGTTAATGAGTGCATACATGAAACTTAATGTTTACGACGAGGTAAAAGAAGTTTTGGCGTACTTGAAAGAGAAAGGCTACCGCCTGGCTATATTTACCAATGGCCCAAAACATATGATCGACCCTCTGGTGAGTTATCATAACATGAATCATTTATTCGAGGATGTTATATCTGTTGATGAAATCAAACAATATAAGCCGACGATGGCGTCCTATCATTATGCAAAGAACAAAATGAACGCAAAGCGTGAAGAAGTCCTATTCCTGAGCTCTAATACTTGGGATATTGCTGGTGCCAAAAATTATGGTTTTGCAACAGCCTGGGTCAATCGGAAAGGAAACGTTGCCGAACACAAAGAATTGCAGCCAAATGTAATTATTAAATCGCTGAATCAGCTTATTAAAGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ATGTATAAAGCGATTATCTTTGACGTTTACGGTACTATATTTGATATGAAATCGTTGAAAAACGATATGGATCAGTTTAATGAAGTGGAGGCCAAAAGTATATCACAGCTGTGGAGAAAAACACAACTCGAACATATGTTTCTCCGCCAGGTTATGCAGCGCTACATTCCATTCGATGAATTAACAAAAGAATCTTTAAGATACGTTCTTGACGTTCATGAAATTCAGTATAACCGTGAAGACGTGAACCAACTGTTTGAAGCGTTTTTAGACTTAGATTATTTTAAAGAGATTCCAAAAGTACTGAGCGAGCTTAATTCTAAAAATTTAGAAGTTGGCGTCCTTAGTAATGCTAATGATAACATGCTTATGCCGCTGGTAGACAATAGCGAAATTAATAAATATATCAATACGGTCATTTCTGTGAACGAAATTAAGCAGTATAAACCTAGCCCAGCATCTTACTCCTTGATATTAAAGTATTACCAAATGGCCCGGGAAGATATTTTGTTCGTGAGTTCTAACGCATGGGATGTATCGGGCGCCGCTAATTTTGGATTTGATACCGTCTGGGTTAATCGATCAAAATCCCATTTTGACTACAATGGTCAGTCTCCAACCATGACTGTCAATAACCTCAATGAGATGGTCAAATGGCTAGAGATGAATAAGCGCGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ACTAACGTGAAAGCATTTGTATTTGATGCTTATGGGACACTGTTTGACGTGTTTTCTGTAACCAAAAAATGTGAGGAGTTATTCCCTTCTAAGGGTGATCAAATTTCACAGACGTGGCGCCAGAAACAACTTGAATATTCATATCTCCGCCAGATGATGGGCAAGTACAGGCCGTTTTCAACCGTTACCAGGGATGCCCTGCGCTATGCCGTCGCGGACGTAGATGCTGAACTGTCTAGTGACAACGAAGAACAACTTCTCAACGCATACAAAGAGCTTACGGTTTATGATGAAGTCCCGGGCGTGTTAAAAGAACTGGAAGAACAGGGAATGACACTGGCTATTTTCTCTAATGGGTCGCATGACATGTTGGATCCTTTAGTGAAACAGTCGCCACTGGCCGAGTATATTGACCATATAATTTCGGCAGATGACATCAATCAATATAAACCAACACCCGCCTCTTATACCCACGCGTTAGATAGTTTGGAGTTAAATCGAGAAAATATCTTATTTATGAGCTCCAATGGTTGGGACATTTCCGGTGCTAAAAACTTTGGTTTCCACACCGCGTGGATTAATCGTAATGAAAAGCCAGTTGAAAAACTCGCACTGGAACCAGATACTATCTACTCAGATCTTACCGGTATCAAGAACTGGAGTGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ATGAAAATCGACGAGGATATGAAGATGAAGGCAGTCCTATTCGATGTATACGGGACCCTGATAAGCACGGGAACTGGTAGTATTAATGCTGTCAAATCCATATTAGCGAAAAAACATTCAGAAATAGAGCCAGAGGCTTTTTATGCAGAGTGGAAGCAGCTGCACAAAAAGAGAATGCGCCAGACCCTTTTTTTGACCGAACGTGAAATTTTTATGAAAGATTTAGCCGAGCTCTATTCTGTCTATGGCATTGCGGGAGATTACAAAGAAGATGTCAAAATTATGCTTGAATCTTTGTATAATCGTACAGTGTATCCAGAGGTGCCAGAGGCTATCAACAGACTTAGCAAAAAATACGAGGTTATAATTGCGTCGAATACTGATACAGAGCCACTGCTGCAGAATTTTGACTATAACGGCCTAGTGTTTGGCAAAATTTATACTTCTGAGGGATTGATGGCTTATAAACCGAACCCGAAGTTCTACCTGACTATCTTAAATGAGTGTGGGTATAGTCCGGAAGAAGTGCTTTATGTGGGAGATTCCTGCGAAGAAGATATTATTGCCCCGAGTCAACTTGGCATTAAGACGGCGCTGGTTGATCGTAAAAAATCTGGCAACGAATACGGTCAAACTTTTTCCATTAATGACATATCTCAATTGTGCCCGATTCTAGGCTGTGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ATGAAAAAAGCACTTATCCTTGACGGGTATGGTACCCTGTTCTTTACAGGCACAGGTTCAGTTGATGCAGCTGGGAAAGTGTTAGCTAAACGTGGTCGCTTTGATTTGGACGCAAAAGAGTTTTATGCCAGGTGGAAACAGATACATCGTCAGCATCTGGAAGCCCCGGGTACATTTCTGACAGAGGAAGTACTGTACCACCGAGACCTCCGAGAACTGTACGCAGAGTACGCTATTGAGGGTGACCCTGATGAAGATGTGCAGATAATGCTGGATATTTTAGGCAATCGCACTGCTTACCCAGAAGTTAAGGAAGTATTGGAAAAACTGTCTCATCGCATGACCCTGTGCATTGGTTCTACCTCTGACACGGCCCCGTTACTGCAAGATCTGGAAAGGTCAGGTCTACCCGTTAGCCGTGTTTTTACAAGCGAGGGCCTTCGCGTTTATAAACCCCACCGTTCTTTCTACCGCTCAATTCTGAAACAGCTGGGATTAGAGGCCAGCCAGACGCTGTTTGTTGGCGATAGCCTGAGAGACGATGTTTTCGGACCGCAGCGTGTTGAGATGCAGGCGTGCTGGGTCAATCGGAAGGGTGAACAGGCTGAAGATGTTACCCCTGATTTTGAAATACGGGATCTGCGTGGTCTGCCTGAGCTAGTCGACGCCCTATTAGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ATGATCAAAGCCGTCCTGCTCGACGCCTATGGCACACTTTTCGACACTGGCACTGGCAGTGTACAAGCCGCTCAGGAAATCTTAGCAAGAAACGGCAGAGAAGACCTGTCACCCGCTGAATTCTATGGCCAGTGGAAAGCTCTGCACCACCGATTGATGGAGGAACTCCCTAGCTTTCGCACCGAAGCACGTTTATATGCACAGGGACTGGCAATGCTTTATCGACAATATGGTTTTAGCCGCAATCCGGCGGAAGACGTGAAAGTAATGTTGCGCTATCAAGGCACCCGAACGGCGTACCCCGAAGTTAAAGCAGTTGTTGAATCTTTAGCAACACAATACCTGTTGTGTGTCGCAAGTACTACGGATACGGCCCCATTGTTACGAGATCTTGCTCGCGCCGGGTTGCGTTTCCAACACGTGTTTACATCTGAAGCCCTGGGAGCCTATAAACCCTCGCCTGCTTTCTATCAACCGATATTACGCGCTCTCGCGCTGAGTCCGAAAGAGACCGTTTTTGTCGGGGATAGCTTGAAGGACGACGTAATCGGGCCGAAAAAAGTCGGGATACGCACTGTTTGGGTCAATCGTAAAAGCCTGTTAGTGGGCGACGTCTTTCCTGATGCCATTGTATCATCACTTGAAGGACTTCCGGGCGTCCTCGAAGCCTGGAAAGAAACTGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ATGGAAAAAAAACGTTTGGTGCCCAAAGCGATAACCTTCGACGTGTATGGTACCCTGATTGACTGGGAAGGAGAAATTCGCAAATATTTTAGCGATTTTATGGCTAGTAAGGGTATTACGTCAGCTACTCCATATCAGGTTCAGCAGCGGTGGGAAGAAGTTCAGTTTGAGTACATTAAAACTTACCGTCCGTATCGGCAAGTCCTGAAAGATACCATGGCCCTCACCTGCCAAGAATTTGGTTTTGATTTTACGGAAGAAGACTGTGTGGCATTTTCAGAGTCCATGGCCCATTGGAAAGCATTCCCAGATACCGTAGAGGCGATTAAAGAATTACGGAAGTATACAAAATGCGTAATGCTGACAAACACAGATAAAGATATCGCCCCTGCAACTCTTTCTAATGCAGGGATCGAAGTCGACGGTATTGTGACTGCGGAAGATGCAGGGTGCTATAAGCCGAACCACGGTGGTTTCTTGTTAAGTCAGAAATTACTGGGCCTGACAGCAGACGAAATGATGCATGCTGGTTTTGGGTTCAAATATGATGTTATTCCTGGTAACCAGCTTGGATATCGAACAATTTGGGTAAATCGACAGGGCATTGTACGTCCAATCGATGGAGTGAGCGGGGAGCTTCTTCAGTACTGCAAAGAAGATATTCTGTGTGGCGATTTGCAAACTTTAGCTTATATAATTAAGGGTATGCATCAGACCGACGTTGAGAATGGGTTTGCAGATGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ATGGGTATAAAAGCTGTCTTATTTGATCTTGATGGTACACTTCTTAACCGAGATGAATCAGTTAACTTCTTTATCGAGAGCCAATACGAACGCCTGGGTATGACCTTAGACGACATTCCCAAAGAATCTTATGTATCACGTTTTATTCAGCTGGACAAACGGGGGTACGTTTGGAAAGATAAGGTTTACCAGCAGCTGGTCCAGGAGTTTAATATTGTGTCACTGACGTGGGAAGAGTTGTTACAAGATTATATGAACGAATTTAAAAACTATTGTGTCGCATTTCCGAATGTAATAAGCCTGTTAGAACAACTTAAAACAGACAAATACCTGCTGGGGATAATTACGAACGGATATGGCCATTTTCAGATGGATAACATTAAAGCCCTGGCAATTGAAAAATATTTCGATGTTATCTTAGTATCAGAATGGGAGAATATGAAAAAACCAAACCCGCAGTTGTTCCTTCGTGCTTTAGATAAACTGCAGGTTTCTCCACATGACTCGATTTTCCTGGGTGACCATCCAGAGACAGACGTAAAAGGTGCTCAGGCCGTGGGTATGAAAGGTATTTGGAAAAAAGATGCGCAGTGGGATCACGTGGAAGCTGACGCAATTCTGGATGATTTGTCAGAACTGCCTTCGATCATTGACTATCTTAATAACAAGTTAGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ATGGATATAACCTTTGATTGCTATGGTACGCTGCTGGACACCCGTCCCATCCGGACTCAGTTTATGACCTTTTCAGCTCGTCACGGGATCGATGGGCAGGCCGCCTGGCACCAGTTTGAAAGTTGGGAAGATCGTCTAATGTATGGCGAAACCACGTTTCCTTTCACTACATTGTTAAAGCGTGATCTGCAATATTTGGATATGACATTTCGTACGAATAGTTTGTTTAGTCATTATTTCCATGATCTTTTCGAATCATACATCAACCTTCAGCCGTGGCCCGAGGTAATCCCTGCACTACAACAACTGCGCCAAGCCGGCCATCGTATTATAATTATGTCAAACAGCACTCCTGATCTGATGACACATCATTTTGACCAGCTGGAGCATCAAGTAGATCAGGCCATTTTACCTGAACAGACTCATTGCTATAAGCCGACATTGAGCTTCTTCACAACAGCAGAGATACGCTTTTCGCAGCCCCATCTGCATGTGGCAATGGGTTATTGGTGGGATATTGTTCCCTGCCATAAATTAGGATGGCCGTGTGTGTGGATTAATCGTCAGCAGTTATCCCCGCTGCCGGATATTACCCCGACCTATAGCTTACCGAACTTGACCGAACTGCCGGCATTAGTGGAAAAAATAGCCTCTGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ATGGAAACGTTAAAGAATACAAAGTTATGTGTGTTCGATGCTTATGGCACTCTGTTTGATATTAACTCTGTCACCAAGCAATATTGCAATGAGCTCGAGGAGATTTCTGATCAGTTTTCAAACCTGTGGCGCTCCAAACAGTTAGAATATACTTGGCTTCGAAGTCTGATGAATCGCTATGAAGATTTTTGGTGCATCACAGAGGAATCCCTTGATTATACTTTGAAATATTTTAATATTAAATCTGACTTTCTTAAAAGTAACCTGTTAAAAAGCTATGAAAATATCAATTGTTATGAAGAGGTGCCCAAAACCCTGTTTAAATTGAAAGAAAAAGGACTGCTAATCATTATTCTGAGCAATGCATCTCCTACGATGTTACAGATGGCCGTGAAGAATAGCAATATAAACTCGTTAATAACCGATTGTATTACAGTCGATAGCGTTAAAATCTACAAACCGCACGCAACGGTTTATAATCTTGTACTGGAAAAATATAATTTTAAAAAAAATGAAATACTGTTCGTTAGCTCAAATACTTGGGATGTGGCAGGTGCTAAGAGTTTCGGCTTTAATGTGGCGTGGATAAATCGTTTTAATAATAAAAAAGAAATTCTACCGTTTGAATCTGATGTCGAACTGAAATCTTTGATCGATTTACCCAACATAATCGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
+  </si>
+  <si>
+    <t>ATGATCCGGGCGGTAATTTTTGACATGGACGGTGTCCTAGTGGACTCTGAGATGCTCTACTTAAATCTGCGTTATCAATTCGCAAAGGGCAAGAATCCGGAGGTGACCTTAGAAGAACTTTATACTACAGTCGGACGCTCTTCAGAGGGTTCCTGGGGCATTGTTGCGAAGGCCGTGGATAATGGCATGACCTGGCAAGAGCTTTTGGCGGAGTACAAGGAGAAAGTTGTGGTTACATATCCTAGCATGGACTTTACCGAGGTGTTTCGTAAAGAGGCCCCAGATGTATTGAGAAAACTGCAGGAGAAAGGACTCCGCCTTGCTCTCGCATCTTCAAACGGTCTCGCAATTGTGGAAAAAATATTGCGCGATAATGGGATTCGCGACTTCTTCGAAGTAGTGGTTTCTGGTGAGTCATTCCGCAAATCTAAGCCAGATCCAGAAATCTATATCCATACCGCTGCGGCGCTAGGAATTGATACTAAAGATTGTTTAGTGGCAGAGGATTCTACTGCTGGTATCACTGCGGCCCATTTAGCCGGCATGCAGGTGGCGGCTGTGATTGACGATCGGTTCGGCTTCGACCGGTCTCTGGCGGATTTTGAAGTAGAGAAGATTACTGACATTCCGGACATTCCGATCTTGTCGGGTAAAGCAATCAGGAAGAAGGAGGGTGCTCAGCGTTCTGGCAAAGTCCACGCAGAGAATCTATATTTCCAGCATCACCACCATCACCATTAAgatccgaattcgagctcggcgcgcctgcag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -530,6 +688,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -944,13 +1123,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="394">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1686,7 +1871,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I25"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1696,15 +1881,15 @@
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="6" width="46.83203125" customWidth="1"/>
     <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" t="s">
-        <v>101</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -1713,7 +1898,7 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1729,358 +1914,547 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="I2">
+      <c r="I5">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="I4">
+      <c r="I7">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H8" t="s">
         <v>55</v>
-      </c>
-      <c r="I5">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
       </c>
       <c r="I8">
         <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
       <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>103</v>
+      <c r="C10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>169</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
+        <v>170</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>171</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
+      <c r="G15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>174</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
+      <c r="G16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
+      <c r="G17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
+      <c r="G18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>177</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
+      <c r="G19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="G21" t="s">
-        <v>129</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>121</v>
+      <c r="G21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
       </c>
       <c r="I21">
         <f>LEN(H21)</f>
@@ -2089,28 +2463,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>122</v>
+      <c r="G22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
+        <v>121</v>
       </c>
       <c r="I22">
         <f t="shared" ref="I22:I25" si="0">LEN(H22)</f>
@@ -2119,28 +2493,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>123</v>
+      <c r="G23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" t="s">
+        <v>122</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -2149,28 +2523,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="G24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>124</v>
+      <c r="G24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
+        <v>123</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -2179,28 +2553,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" t="s">
         <v>119</v>
-      </c>
-      <c r="D25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -2208,6 +2582,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I9">
+    <sortCondition ref="A2:A9"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2262,7 +2639,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -2274,7 +2651,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2293,7 +2670,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -2305,7 +2682,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -2324,7 +2701,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -2336,7 +2713,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -2355,7 +2732,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -2367,7 +2744,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -2386,7 +2763,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -2398,7 +2775,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -2417,7 +2794,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -2429,7 +2806,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -2448,7 +2825,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -2460,7 +2837,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -2479,7 +2856,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -2491,7 +2868,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -2510,7 +2887,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -2522,7 +2899,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -2541,7 +2918,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -2553,7 +2930,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -2572,7 +2949,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -2584,7 +2961,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>

--- a/protein_sequences_info/Sequenceinfo_dehalogenases.xlsx
+++ b/protein_sequences_info/Sequenceinfo_dehalogenases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/probstsi/Documents/GitHub/gut_microbe_defluorination_paper/protein_sequences_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinsse/Documents/github/gut_microbe_defluorination_paper/protein_sequences_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709C320A-47E2-5B4E-8825-CA8575239D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73157E-615B-6D41-BB73-EB06B0F07E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42880" yWindow="7160" windowWidth="26400" windowHeight="19640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protein info" sheetId="2" r:id="rId1"/>
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD66BD5-569C-E04D-8A86-DC349EC6CDED}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2170,6 +2170,10 @@
       <c r="H10" t="s">
         <v>8</v>
       </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I20" si="0">LEN(H10)</f>
+        <v>219</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2196,6 +2200,10 @@
       <c r="H11" t="s">
         <v>11</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2222,6 +2230,10 @@
       <c r="H12" t="s">
         <v>14</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2248,6 +2260,10 @@
       <c r="H13" t="s">
         <v>13</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2274,6 +2290,10 @@
       <c r="H14" t="s">
         <v>12</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2300,6 +2320,10 @@
       <c r="H15" t="s">
         <v>14</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2326,6 +2350,10 @@
       <c r="H16" t="s">
         <v>16</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2352,6 +2380,10 @@
       <c r="H17" t="s">
         <v>9</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -2378,6 +2410,10 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -2404,6 +2440,10 @@
       <c r="H19" t="s">
         <v>10</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -2430,6 +2470,10 @@
       <c r="H20" t="s">
         <v>15</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -2487,7 +2531,7 @@
         <v>121</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I25" si="0">LEN(H22)</f>
+        <f t="shared" ref="I22:I25" si="1">LEN(H22)</f>
         <v>243</v>
       </c>
     </row>
@@ -2517,7 +2561,7 @@
         <v>122</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>274</v>
       </c>
     </row>
@@ -2547,7 +2591,7 @@
         <v>123</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
@@ -2577,7 +2621,7 @@
         <v>119</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>223</v>
       </c>
     </row>
